--- a/Analisis notas.xlsx
+++ b/Analisis notas.xlsx
@@ -522,28 +522,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.129368763057509</v>
+        <v>2.873120540029285</v>
       </c>
       <c r="C2" t="n">
-        <v>2.117267231878736</v>
+        <v>2.289098036238183</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7892086420067801</v>
+        <v>0.3552499816713484</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1716532013981572</v>
+        <v>0.01949558553982091</v>
       </c>
       <c r="F2" t="n">
-        <v>9.529333247223713</v>
+        <v>7.710590710895981</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.554280753828545</v>
+        <v>-3.468148818723423</v>
       </c>
       <c r="H2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I2" t="n">
         <v>26</v>
-      </c>
-      <c r="I2" t="n">
-        <v>24</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -588,42 +588,42 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.21999176803795</v>
+        <v>5.599313298392754</v>
       </c>
       <c r="C3" t="n">
-        <v>2.892964766322265</v>
+        <v>3.174128603632624</v>
       </c>
       <c r="D3" t="n">
-        <v>0.621845225192418</v>
+        <v>-0.1538770890080507</v>
       </c>
       <c r="E3" t="n">
-        <v>1.162137833199619</v>
+        <v>0.5956772030667958</v>
       </c>
       <c r="F3" t="n">
-        <v>11.92201819585794</v>
+        <v>14.07685479644176</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6279749985318758</v>
+        <v>0.2100239782697499</v>
       </c>
       <c r="H3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -654,22 +654,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.21999176803795</v>
+        <v>-3.599313298392754</v>
       </c>
       <c r="C4" t="n">
-        <v>2.892964766322265</v>
+        <v>3.174128603632624</v>
       </c>
       <c r="D4" t="n">
-        <v>0.621845225192418</v>
+        <v>-0.1538770890080507</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.162137833199619</v>
+        <v>-0.5956772030667953</v>
       </c>
       <c r="F4" t="n">
-        <v>1.372025001468124</v>
+        <v>1.78997602173025</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.922018195857945</v>
+        <v>-12.07685479644176</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -679,17 +679,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
